--- a/medicine/Psychotrope/Eugène_Vergez/Eugène_Vergez.xlsx
+++ b/medicine/Psychotrope/Eugène_Vergez/Eugène_Vergez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vergez</t>
+          <t>Eugène_Vergez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Vergez, né le 1er juillet 1846 à Bordeaux et mort dans la même ville le 2 juillet 1925, est un peintre paysagiste et illustrateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vergez</t>
+          <t>Eugène_Vergez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Baptiste Eugène Vergez nait à Bordeaux le 1er juillet 1846[1],[2]. Il est le fils de Jean Baptiste Hector Vergez, négociant, et de Marie Alexandrine Duranteau[2].
-Il étudie à l'École des beaux-arts de Bordeaux où il est l'élève de Pierre-Émile Bernède. Il appartient à l'École française[3] et à l'« école bordelaise de paysage »[4],[5].
-Il est membre de la Société des artistes français et expose au Salon de Paris de 1879 à 1904 par intermittence, au salon de Bordeaux à partir de 1866, et dans divers salons et expositions de province où il obtient médailles et distinctions[n 1],[6],[1],[7]. Ses ateliers furent successivement situés au 41 rue d'Aviau et au 78 cours d'Aquitaine (aujourd'hui cours Aristide Briand) à Bordeaux[6],[3].
-Il doit notamment sa notoriété à son travail d'illustrateur pour plusieurs éditions de l'ouvrage Bordeaux et ses vins de Charles Cocks et Édouard Féret, dans lesquelles il présente les châteaux du bordelais au travers de plusieurs centaines de gravures[8],[9],[10] réalisées pour la plupart par Léon-Louis Chapon. Il dessine et peint par ailleurs plus particulièrement les paysages de la région bordelaise mais également ceux de Bretagne et du Sud de la France[6],[11].
-Eugène Vergez meurt dans sa ville natale le 2 juillet 1925[12], au lendemain de son 79e anniversaire ; il est inhumé au cimetière de la Chartreuse le 4 juillet suivant[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Baptiste Eugène Vergez nait à Bordeaux le 1er juillet 1846,. Il est le fils de Jean Baptiste Hector Vergez, négociant, et de Marie Alexandrine Duranteau.
+Il étudie à l'École des beaux-arts de Bordeaux où il est l'élève de Pierre-Émile Bernède. Il appartient à l'École française et à l'« école bordelaise de paysage »,.
+Il est membre de la Société des artistes français et expose au Salon de Paris de 1879 à 1904 par intermittence, au salon de Bordeaux à partir de 1866, et dans divers salons et expositions de province où il obtient médailles et distinctions[n 1]. Ses ateliers furent successivement situés au 41 rue d'Aviau et au 78 cours d'Aquitaine (aujourd'hui cours Aristide Briand) à Bordeaux,.
+Il doit notamment sa notoriété à son travail d'illustrateur pour plusieurs éditions de l'ouvrage Bordeaux et ses vins de Charles Cocks et Édouard Féret, dans lesquelles il présente les châteaux du bordelais au travers de plusieurs centaines de gravures réalisées pour la plupart par Léon-Louis Chapon. Il dessine et peint par ailleurs plus particulièrement les paysages de la région bordelaise mais également ceux de Bretagne et du Sud de la France,.
+Eugène Vergez meurt dans sa ville natale le 2 juillet 1925, au lendemain de son 79e anniversaire ; il est inhumé au cimetière de la Chartreuse le 4 juillet suivant.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Vergez</t>
+          <t>Eugène_Vergez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,108 +562,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste non exhaustive des œuvres
-La lande de Tréboul (Finistère) — exposé au Salon de 1879[14],[15],[16],[17],[18].
-La Mare aux Fées, forêt de Fontainebleau — exposé au Salon de 1880[19],[20],[21].
-L'étang de Guérande (Loire-Inférieure) — exposé au Salon de 1881[22],[23].
-La lande de Lanriec (Finistère) — exposé au Salon de 1882[24],[25].
-Environs de Marseille — exposé au Salon de 1883[26],[27],[28].
-Le port des pécheurs, à Saint-Jacut-de-la-Mer, marée basse — exposé au Salon de 1888[29].
-Le port du Conquet (Finistère) — exposé au Salon de 1889[30],[31],[32].
-Le soir, à Beg-Meil (Finistère) — exposé au Salon de 1890[33],[34].
-Les rochers de l'Estaque, environs de Marseille — exposé au Salon de 1893[35].
-Les rochers de la Madrague, environs de Marseille — exposé au Salon de 1894[36].
-Au bois de la Chaize (Noirmoutiers) — exposé au Salon de 1896[37],[18].
-Les ormeaux du Pouldu (Finistère) — exposé au Salon de 1897[38],[39].
-Côtes de Provence — exposé au Salon de 1897[38],[39]
-Les dunes du Pouldu, Finistère — exposé au Salon de 1898[40].
-Sur la Lande, environs de Concarneau (Finistère) — exposé au Salon de 1899[41].
-Un chemin à Sanary (Var) — exposé au Salon de 1900[42],[43].
-Soir d'orage, Banyuls-sur-Mer (Pyrenées-Orientales) — exposé au Salon de 1901[44].
-Soir d'été, au Lavandou (Var) — exposé au Salon de 1904[45],[46].
-Un soir à Beau-Rivage (Provence) — exposé au Salon de l'école française de 1904[6],[47],[43],[48].
-Vue de Fontarabie le soir[31].
-Le village de Morsalines (Manche)[1].
-Vue prise à Mortefontaine[n 2],[49],[50].
-Anse des Catalans, Marseille[n 2],[49],[50].
-Au golfe de Giens[51],[52],[47].
-Les rochers de Port-Issol[51],[52].
-Au Mourillon, environs de Toulon[53].
-Environs de Toulon[53].
-Un chemin à l'île d'Yeu[18].
-Gros temps à Quiberon[18].
-Vue de Pasajes (Espagne)[54].
-Chemin de Bordagain à Ciboure[54].
-Les Martigues (étang de Berre)[55],[27],[43].
-À Fouesnant (Finistère)[55],[43].
-Le vieux port à Marseille[56],[43].
-Aux Martigues (Bouches-du-Rhône)[56],[57],[43].
-Vue animée des côtes bretonnes[11].
-Voiliers, côte animée[58].
-La vague[58].
-Côte de Bretagne, Beg Meil, Finistère[59].
-Bateaux de pêche aux Martigues[59].
-Le Vallon, environs de Concarneau (Finistère)[60].
-Une vieille église à Banyuls[61],[62].
-Fontarabie le soir[61],[62].
-Vieille tour à Banyuls[46].
-Maison du pécheur à Bénodet[46].
-Le port de Cassis[63],[64].
-Vue prise aux Sables d'Olonne (Vendée)[65].
-Une ferme dans les Landes[65].
-Vue de St-Jean-Pied-de-Port[65].
-Plage de Reville (Manche)[66],[67].
-Marée basse à St-Vaast-la-Hougue[68].
-Une ferme à Bénodet[69],[70].
-Soirée de juillet, Côtes de Bretagne[69],[70].
-Le port de Banyuls[71].
-Le matin, baie de Fouesnant[72],[67].
-Ferme à Guéthary[73].
-Marines[74].
-Souvenir de Bretagne[75],[27].
-Après-midi de juillet en Bretagne[76].
-Rochers de Plomarch, à Douarnenez (Finistère)[77],[78].
-Bouquet de Bruyères[79].
-Chemin du Guildo[80].
-Environs de Paimpol[80].
-Fontarabie[48].
-Ferme du val André (Côtes-du-Nord)[81].
-Les rochers de Saint-Mathieu[82].
-Plage de Beg-Meil (Finistère)[83].
-Entrée du cloitre Saint-Maclou à Rouen[84].
-Vue prise à Montauban[84].
-Une place publique à Bazas[84].
-Vue de l'église d'Arcachon[84].
-Les ramasseurs de varech aux Sables d'Olonne (Vendée)[85].
-La ferme de Kergande (Douarnenez)[78].
-Baie de Quiberon (Morbihan)[78].
-Plage du Mouleau (Arcachon)[78].
-Village de Cricquebœuf, près de Villerville (Calvados)[86].
-La pêche aux moules, à Villerville[86].
-Le Croisic (Loire-Inférieure)[87].
-Vue du Croisic[87].
-Petit chemin, à Villerville, étude[87].
-Les pins de Roscoff (Finistère)[88].
-Les rochers d'Erquy (Côtes-du-Nord)[88].
-Port de Collioure (Pyrenées-Orientales)[88].
-Les rochers de Porspoder[89].
-La lande Saint-Jean (Douarnenez)[89].
-Un ruisseau à Guérande (Loire-Inférieure)[90].
-Au Roucas-Blanc (Marseille)[91].
-Dans les dunes, Bénodet (Finistère)[92].
-Derniers rayons, côte de Provence[92].
-La mare, environs de Noirmoutier[93].
-Un village à Trescallan (Loire-Inférieure)[94].
-Souvenir de l'île d'Oléron[94].
-Plage du Triez, à Bénodet (Finistère)[95].
-Port de la Ciotat[96],[97].
-Ferme du Trez[64].
-Site breton[67].
-Le Soir[97].
-Port de Bordeaux[98].
-La baie de Concarneau[99].
-Pointe Sainte-Barbe au Conquet (Finistère)[100].
-Village de la Roselière à Belle-Ile-en-Mer[101].
+          <t>Liste non exhaustive des œuvres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La lande de Tréboul (Finistère) — exposé au Salon de 1879.
+La Mare aux Fées, forêt de Fontainebleau — exposé au Salon de 1880.
+L'étang de Guérande (Loire-Inférieure) — exposé au Salon de 1881,.
+La lande de Lanriec (Finistère) — exposé au Salon de 1882,.
+Environs de Marseille — exposé au Salon de 1883.
+Le port des pécheurs, à Saint-Jacut-de-la-Mer, marée basse — exposé au Salon de 1888.
+Le port du Conquet (Finistère) — exposé au Salon de 1889.
+Le soir, à Beg-Meil (Finistère) — exposé au Salon de 1890,.
+Les rochers de l'Estaque, environs de Marseille — exposé au Salon de 1893.
+Les rochers de la Madrague, environs de Marseille — exposé au Salon de 1894.
+Au bois de la Chaize (Noirmoutiers) — exposé au Salon de 1896,.
+Les ormeaux du Pouldu (Finistère) — exposé au Salon de 1897,.
+Côtes de Provence — exposé au Salon de 1897,
+Les dunes du Pouldu, Finistère — exposé au Salon de 1898.
+Sur la Lande, environs de Concarneau (Finistère) — exposé au Salon de 1899.
+Un chemin à Sanary (Var) — exposé au Salon de 1900,.
+Soir d'orage, Banyuls-sur-Mer (Pyrenées-Orientales) — exposé au Salon de 1901.
+Soir d'été, au Lavandou (Var) — exposé au Salon de 1904,.
+Un soir à Beau-Rivage (Provence) — exposé au Salon de l'école française de 1904.
+Vue de Fontarabie le soir.
+Le village de Morsalines (Manche).
+Vue prise à Mortefontaine[n 2].
+Anse des Catalans, Marseille[n 2].
+Au golfe de Giens.
+Les rochers de Port-Issol,.
+Au Mourillon, environs de Toulon.
+Environs de Toulon.
+Un chemin à l'île d'Yeu.
+Gros temps à Quiberon.
+Vue de Pasajes (Espagne).
+Chemin de Bordagain à Ciboure.
+Les Martigues (étang de Berre).
+À Fouesnant (Finistère),.
+Le vieux port à Marseille,.
+Aux Martigues (Bouches-du-Rhône).
+Vue animée des côtes bretonnes.
+Voiliers, côte animée.
+La vague.
+Côte de Bretagne, Beg Meil, Finistère.
+Bateaux de pêche aux Martigues.
+Le Vallon, environs de Concarneau (Finistère).
+Une vieille église à Banyuls,.
+Fontarabie le soir,.
+Vieille tour à Banyuls.
+Maison du pécheur à Bénodet.
+Le port de Cassis,.
+Vue prise aux Sables d'Olonne (Vendée).
+Une ferme dans les Landes.
+Vue de St-Jean-Pied-de-Port.
+Plage de Reville (Manche),.
+Marée basse à St-Vaast-la-Hougue.
+Une ferme à Bénodet,.
+Soirée de juillet, Côtes de Bretagne,.
+Le port de Banyuls.
+Le matin, baie de Fouesnant,.
+Ferme à Guéthary.
+Marines.
+Souvenir de Bretagne,.
+Après-midi de juillet en Bretagne.
+Rochers de Plomarch, à Douarnenez (Finistère),.
+Bouquet de Bruyères.
+Chemin du Guildo.
+Environs de Paimpol.
+Fontarabie.
+Ferme du val André (Côtes-du-Nord).
+Les rochers de Saint-Mathieu.
+Plage de Beg-Meil (Finistère).
+Entrée du cloitre Saint-Maclou à Rouen.
+Vue prise à Montauban.
+Une place publique à Bazas.
+Vue de l'église d'Arcachon.
+Les ramasseurs de varech aux Sables d'Olonne (Vendée).
+La ferme de Kergande (Douarnenez).
+Baie de Quiberon (Morbihan).
+Plage du Mouleau (Arcachon).
+Village de Cricquebœuf, près de Villerville (Calvados).
+La pêche aux moules, à Villerville.
+Le Croisic (Loire-Inférieure).
+Vue du Croisic.
+Petit chemin, à Villerville, étude.
+Les pins de Roscoff (Finistère).
+Les rochers d'Erquy (Côtes-du-Nord).
+Port de Collioure (Pyrenées-Orientales).
+Les rochers de Porspoder.
+La lande Saint-Jean (Douarnenez).
+Un ruisseau à Guérande (Loire-Inférieure).
+Au Roucas-Blanc (Marseille).
+Dans les dunes, Bénodet (Finistère).
+Derniers rayons, côte de Provence.
+La mare, environs de Noirmoutier.
+Un village à Trescallan (Loire-Inférieure).
+Souvenir de l'île d'Oléron.
+Plage du Triez, à Bénodet (Finistère).
+Port de la Ciotat,.
+Ferme du Trez.
+Site breton.
+Le Soir.
+Port de Bordeaux.
+La baie de Concarneau.
+Pointe Sainte-Barbe au Conquet (Finistère).
+Village de la Roselière à Belle-Ile-en-Mer.
 	Peintures d'Eugène Vergez
 			Les rochers de l'Estaque, environs de Marseille
 			Bateaux de pêche aux Martigues
@@ -660,18 +680,87 @@
 			Voiliers, côte animée
 			Vue animée des côtes bretonnes
 			Hendaye, gardien de vaches au bord de la Bidassoa
-Œuvres dans les collections publiques
-Bordeaux, Musée des Beaux-Arts :
-Les Ormeaux du Pouldu, Finistère, huile sur toile, 106 x 163 cm[102],[103],[104].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eugène_Vergez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Vergez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvres dans les collections publiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bordeaux, Musée des Beaux-Arts :
+Les Ormeaux du Pouldu, Finistère, huile sur toile, 106 x 163 cm.
 Bordeaux, Bibliothèque municipale :
-une série de dessins, d'estampes et de gravures issue notamment du fonds Delpit[105].
+une série de dessins, d'estampes et de gravures issue notamment du fonds Delpit.
 Pau, Musée des Beaux-Arts :
-Pau, la rue du Moulin (ou Vue de la Côte du Moulin à Pau), aquarelle et gouache, 43.5 x 33 cm[106],[107],[108].
+Pau, la rue du Moulin (ou Vue de la Côte du Moulin à Pau), aquarelle et gouache, 43.5 x 33 cm.
 Noirmoutier, Musée-château de Noirmoutier :
 Chêne verts à Noirmoutier, huile sur toile ;
-Château et église de Noirmoutier, huile sur toile.
-Ouvrages illustrés
-Charles Cocks et Édouard Féret, Bordeaux et ses vins : classés par ordre de mérite, Paris/Bordeaux, G. Masson/Féret et Fils, septembre 1874 (réimpr. 2011), 3e éd., 604 p. (ISBN 978-2-35156-076-1, lire en ligne).
+Château et église de Noirmoutier, huile sur toile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eugène_Vergez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Vergez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Cocks et Édouard Féret, Bordeaux et ses vins : classés par ordre de mérite, Paris/Bordeaux, G. Masson/Féret et Fils, septembre 1874 (réimpr. 2011), 3e éd., 604 p. (ISBN 978-2-35156-076-1, lire en ligne).
 Charles Cocks et Édouard Féret, Bordeaux et ses vins : classés par ordre de mérite, Paris/Bordeaux, G. Masson/Féret et Fils, 1881, 4e éd., 636 p. (OCLC 802578297).
 Charles Cocks et Édouard Féret, Bordeaux et ses vins : classés par ordre de mérite, Paris/Bordeaux, G. Masson/Féret et Fils, septembre 1886, 5e éd., 635 p. (lire en ligne).
 Charles Cocks et Édouard Féret, Bordeaux et ses vins : classés par ordre de mérite, Paris/Bordeaux, G. Masson/Féret et Fils, janvier 1893 (réimpr. 2016), 6e éd., 792 p. (ISBN 978-2-01-373515-5, lire en ligne).
@@ -709,33 +798,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eug%C3%A8ne_Vergez</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eugène_Vergez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Vergez</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Élèves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Dufau[109]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jean Dufau</t>
         </is>
       </c>
     </row>
